--- a/risikovurderinger/Risikovurdering-Aarhusarkivet.xlsx
+++ b/risikovurderinger/Risikovurdering-Aarhusarkivet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azkb075\github\persondata\risikovurderinger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{224EC619-9988-4C7E-9377-DB77CF249F23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E2E7F0-E23A-4D2C-804B-CAFA11AF7DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,21 +736,6 @@
   <si>
     <t>AC.
 Hvad er risikoen ved manglende adgang til data i 1 uge eller mere?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#Ved afslutning af analysen anføres den kontorchef eller lignende ledelsesansvarlige person der har godkendt analysens eventuelle foranstaltninger m.v. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>samt dato</t>
-    </r>
   </si>
   <si>
     <t>Såfremt der kun svares ja til et spørgsmål, vil tommelfingerreglen være, at der formodentlig ikke påkræves en konsekvensanalyse. Man må dog gerne udføre den alligevel. Såfremt der svares ja til to eller flere spørgsmål, skal der udføres en konsekvensanalyse.</t>
@@ -948,13 +933,7 @@
 </t>
   </si>
   <si>
-    <t>#Beskriv formålet med behandlingen - kan eksempelvis kopieres fra den interne anmeldelse#</t>
-  </si>
-  <si>
     <t>KONSEKVENSANALYSE/RISIKOANALYSE - GRUNDOPLYSNINGER</t>
-  </si>
-  <si>
-    <t>#Angiv datoen for sidste revision af analysen#</t>
   </si>
   <si>
     <t>Besvarelse</t>
@@ -2033,19 +2012,6 @@
     <t>De væsentligst opdateringer er på plads</t>
   </si>
   <si>
-    <t>Aarhusarkivet og Smartarkivering benytter ingen databehandler eftersom løsningen bliver hostet på kommunens Azure-miljø 
-AarhusarkivetAarhus benytter ​Heroku / Salesforce (frontend) og Amazon Web Services (backend):</t>
-  </si>
-  <si>
-    <t>Risikovurderingen gælder for: Smartarkivering.dk, Aarhusarkivet.aarhus.dk og Byraadsarkivet.aarhus.dk efersom løsningerne ligner hinanden og benytter en hjemmeside som platform</t>
-  </si>
-  <si>
-    <t>Se databehandleraftale i anmeldelsen: 
-Aarhusarkivet: https://aarhuskommune.sharepoint.com/Teams/leg-legacy1599/Lists/Anmeldelsesportalen/DispForm.aspx?ID=915
-Byraadsarkivet: https://aarhuskommune.sharepoint.com/Teams/leg-legacy1599/Lists/Anmeldelsesportalen/DispForm.aspx?ID=1294
-Smartarkivering: https://aarhuskommune.sharepoint.com/Teams/leg-legacy1599/Lists/Anmeldelsesportalen/DispForm.aspx?ID=449</t>
-  </si>
-  <si>
     <t>De registrerede kan slettes (brugere er enten medarbejdere eller borgere). 
 Smartarkivering.dk: Bidragsydere kan få slettet deres indhold/aflevering</t>
   </si>
@@ -2143,6 +2109,25 @@
   </si>
   <si>
     <t>Risikoen er at hvis sitet går ned kan det være omstændigt at få  sitet reetablieret. Desuden kan manglende opdatering af løsningen medfører at det kan ske hackerangreb eller at sikkerheden generelt bliver kompromitteret</t>
+  </si>
+  <si>
+    <t>Aarhusarkivet.dk</t>
+  </si>
+  <si>
+    <t>Aarhusarkivet.dk benytter ​Heroku / Salesforce (frontend) og Amazon Web Services (backend)</t>
+  </si>
+  <si>
+    <t>Se databehandleraftale i anmeldelsen:
+Aarhusarkivet: https://aarhuskommune.sharepoint.com/Teams/leg-legacy1599/Lists/Anmeldelsesportalen/DispForm.aspx?ID=915</t>
+  </si>
+  <si>
+    <t>Formålet er at udstille Aarhus Stadsarkivs samlinger for alle borgere i kommunen.</t>
+  </si>
+  <si>
+    <t>2021-11-08</t>
+  </si>
+  <si>
+    <t>Søren Bitsch Christensen</t>
   </si>
 </sst>
 </file>
@@ -2764,12 +2749,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2787,6 +2766,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -20246,58 +20231,58 @@
   <sheetData>
     <row r="1" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="102"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="64" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -20328,13 +20313,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D7" s="85"/>
       <c r="E7" s="85"/>
@@ -20512,9 +20497,9 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20525,16 +20510,16 @@
   <sheetData>
     <row r="1" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="102"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -20543,7 +20528,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -20552,7 +20537,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -20561,25 +20546,25 @@
         <v>109</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>110</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>111</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -20588,25 +20573,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>229</v>
+        <v>565</v>
       </c>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G10" s="10"/>
     </row>
@@ -20615,16 +20600,16 @@
         <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>566</v>
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>216</v>
+        <v>567</v>
       </c>
       <c r="G12" s="10"/>
     </row>
@@ -20633,7 +20618,7 @@
         <v>96</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G13" s="10"/>
     </row>
@@ -20686,7 +20671,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="104" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B1" s="105"/>
       <c r="C1" s="106"/>
@@ -20697,7 +20682,7 @@
     </row>
     <row r="2" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="36"/>
@@ -20708,7 +20693,7 @@
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -20743,7 +20728,7 @@
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -20778,10 +20763,10 @@
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -20800,10 +20785,10 @@
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
@@ -20822,10 +20807,10 @@
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
@@ -20844,10 +20829,10 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
@@ -20866,10 +20851,10 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -20880,7 +20865,7 @@
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="46" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -20891,7 +20876,7 @@
     <row r="21" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="46" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -20910,10 +20895,10 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -20924,7 +20909,7 @@
     <row r="24" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="43" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
@@ -20943,10 +20928,10 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -20957,7 +20942,7 @@
     <row r="27" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="43" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -20968,7 +20953,7 @@
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="43" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -20979,7 +20964,7 @@
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="43" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
@@ -20998,10 +20983,10 @@
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -21020,10 +21005,10 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
@@ -21042,10 +21027,10 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
@@ -21064,10 +21049,10 @@
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
@@ -21078,7 +21063,7 @@
     <row r="38" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
@@ -21097,10 +21082,10 @@
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
@@ -21111,7 +21096,7 @@
     <row r="41" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="43" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
@@ -21122,7 +21107,7 @@
     <row r="42" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="43" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
@@ -21141,10 +21126,10 @@
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
@@ -21155,7 +21140,7 @@
     <row r="45" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="43" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
@@ -21174,10 +21159,10 @@
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
@@ -21188,7 +21173,7 @@
     <row r="48" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="43" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
@@ -21207,10 +21192,10 @@
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
@@ -21221,7 +21206,7 @@
     <row r="51" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="43" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
@@ -21240,10 +21225,10 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
@@ -21262,10 +21247,10 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
@@ -21276,7 +21261,7 @@
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="43" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
@@ -21295,10 +21280,10 @@
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
@@ -21317,10 +21302,10 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
@@ -21339,10 +21324,10 @@
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
@@ -21353,7 +21338,7 @@
     <row r="63" spans="1:7" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
       <c r="B63" s="43" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
@@ -21364,7 +21349,7 @@
     <row r="64" spans="1:7" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="43" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
@@ -21383,10 +21368,10 @@
     </row>
     <row r="66" spans="1:7" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C66" s="42"/>
       <c r="D66" s="42"/>
@@ -21397,7 +21382,7 @@
     <row r="67" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47"/>
       <c r="B67" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C67" s="42"/>
       <c r="D67" s="42"/>
@@ -21416,10 +21401,10 @@
     </row>
     <row r="69" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C69" s="42"/>
       <c r="D69" s="42"/>
@@ -21438,10 +21423,10 @@
     </row>
     <row r="71" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="B71" s="43" t="s">
         <v>278</v>
-      </c>
-      <c r="B71" s="43" t="s">
-        <v>281</v>
       </c>
       <c r="C71" s="42"/>
       <c r="D71" s="42"/>
@@ -21452,7 +21437,7 @@
     <row r="72" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="43" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C72" s="42"/>
       <c r="D72" s="42"/>
@@ -21463,7 +21448,7 @@
     <row r="73" spans="1:7" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="43" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
@@ -21474,7 +21459,7 @@
     <row r="74" spans="1:7" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
       <c r="B74" s="43" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C74" s="42"/>
       <c r="D74" s="42"/>
@@ -21485,7 +21470,7 @@
     <row r="75" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
       <c r="B75" s="43" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C75" s="42"/>
       <c r="D75" s="42"/>
@@ -21504,10 +21489,10 @@
     </row>
     <row r="77" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C77" s="42"/>
       <c r="D77" s="42"/>
@@ -21857,17 +21842,17 @@
       <c r="BZ2" s="16"/>
     </row>
     <row r="3" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="112"/>
+      <c r="A3" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -21940,7 +21925,7 @@
     </row>
     <row r="4" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -22035,7 +22020,7 @@
     </row>
     <row r="5" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -22126,7 +22111,7 @@
     </row>
     <row r="6" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -22218,7 +22203,7 @@
     </row>
     <row r="7" spans="1:78" s="54" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>12</v>
@@ -22302,10 +22287,10 @@
     </row>
     <row r="8" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="19"/>
@@ -22393,17 +22378,17 @@
       <c r="BZ8" s="17"/>
     </row>
     <row r="9" spans="1:78" s="61" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="113"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -22476,7 +22461,7 @@
     </row>
     <row r="10" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>13</v>
@@ -22567,7 +22552,7 @@
     </row>
     <row r="11" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -22659,7 +22644,7 @@
     </row>
     <row r="12" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
@@ -22751,7 +22736,7 @@
     </row>
     <row r="13" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>16</v>
@@ -22843,10 +22828,10 @@
     </row>
     <row r="14" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="18"/>
@@ -25198,7 +25183,7 @@
       <c r="BZ39" s="15"/>
     </row>
     <row r="40" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
+      <c r="A40" s="114"/>
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
@@ -25288,7 +25273,7 @@
       <c r="BZ40" s="15"/>
     </row>
     <row r="41" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="108"/>
+      <c r="A41" s="114"/>
       <c r="B41" s="9" t="s">
         <v>43</v>
       </c>
@@ -25378,7 +25363,7 @@
       <c r="BZ41" s="17"/>
     </row>
     <row r="42" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="109"/>
+      <c r="A42" s="115"/>
       <c r="B42" s="6" t="s">
         <v>44</v>
       </c>
@@ -37960,42 +37945,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A79:A82"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A67:A70"/>
     <mergeCell ref="A71:A74"/>
     <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="F4">
@@ -42256,13 +42241,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>8</v>
@@ -42286,15 +42271,15 @@
         <v>97</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B2" s="116" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C2" s="116"/>
       <c r="D2" s="75"/>
@@ -42306,22 +42291,22 @@
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G3" s="22" t="str">
         <f>IF(AND(E3="LAV",F3="LAV"),"LAV RISIKO",IF(AND(E3="LAV",F3="MIDDEL"),"LAV RISIKO",IF(AND(E3="LAV",F3="HØJ"),"MIDDEL RISIKO",IF(AND(E3="MIDDEL",F3="LAV"),"MIDDEL RISIKO",IF(AND(E3="MIDDEL",F3="MIDDEL"),"MIDDEL RISIKO",IF(AND(E3="MIDDEL",F3="HØJ"),"HØJ RISIKO",IF(AND(E3="HØJ",F3="LAV"),"HØJ RISIKO",IF(AND(E3="HØJ",F3="MIDDEL"),"HØJ RISIKO",IF(AND(E3="HØJ",F3="HØJ"),"HØJ RISIKO","Udregnes automatisk")))))))))</f>
@@ -42332,22 +42317,22 @@
     </row>
     <row r="4" spans="1:11" s="76" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="82" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>328</v>
-      </c>
       <c r="D4" s="75" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G4" s="22" t="str">
         <f>IF(AND(E4="LAV",F4="LAV"),"LAV RISIKO",IF(AND(E4="LAV",F4="MIDDEL"),"LAV RISIKO",IF(AND(E4="LAV",F4="HØJ"),"MIDDEL RISIKO",IF(AND(E4="MIDDEL",F4="LAV"),"MIDDEL RISIKO",IF(AND(E4="MIDDEL",F4="MIDDEL"),"MIDDEL RISIKO",IF(AND(E4="MIDDEL",F4="HØJ"),"HØJ RISIKO",IF(AND(E4="HØJ",F4="LAV"),"HØJ RISIKO",IF(AND(E4="HØJ",F4="MIDDEL"),"HØJ RISIKO",IF(AND(E4="HØJ",F4="HØJ"),"HØJ RISIKO","Udregnes automatisk")))))))))</f>
@@ -42359,22 +42344,22 @@
     </row>
     <row r="5" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G5" s="22" t="str">
         <f>IF(AND(E5="LAV",F5="LAV"),"LAV RISIKO",IF(AND(E5="LAV",F5="MIDDEL"),"LAV RISIKO",IF(AND(E5="LAV",F5="HØJ"),"MIDDEL RISIKO",IF(AND(E5="MIDDEL",F5="LAV"),"MIDDEL RISIKO",IF(AND(E5="MIDDEL",F5="MIDDEL"),"MIDDEL RISIKO",IF(AND(E5="MIDDEL",F5="HØJ"),"HØJ RISIKO",IF(AND(E5="HØJ",F5="LAV"),"HØJ RISIKO",IF(AND(E5="HØJ",F5="MIDDEL"),"HØJ RISIKO",IF(AND(E5="HØJ",F5="HØJ"),"HØJ RISIKO","Udregnes automatisk")))))))))</f>
@@ -42386,22 +42371,22 @@
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G6" s="22" t="str">
         <f t="shared" ref="G6:G55" si="0">IF(AND(E6="LAV",F6="LAV"),"LAV RISIKO",IF(AND(E6="LAV",F6="MIDDEL"),"LAV RISIKO",IF(AND(E6="LAV",F6="HØJ"),"MIDDEL RISIKO",IF(AND(E6="MIDDEL",F6="LAV"),"MIDDEL RISIKO",IF(AND(E6="MIDDEL",F6="MIDDEL"),"MIDDEL RISIKO",IF(AND(E6="MIDDEL",F6="HØJ"),"HØJ RISIKO",IF(AND(E6="HØJ",F6="LAV"),"HØJ RISIKO",IF(AND(E6="HØJ",F6="MIDDEL"),"HØJ RISIKO",IF(AND(E6="HØJ",F6="HØJ"),"HØJ RISIKO","Udregnes automatisk")))))))))</f>
@@ -42412,22 +42397,22 @@
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G7" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42438,22 +42423,22 @@
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G8" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42464,22 +42449,22 @@
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G9" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42490,22 +42475,22 @@
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G10" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42516,14 +42501,14 @@
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="75" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>88</v>
@@ -42536,13 +42521,13 @@
         <v>MIDDEL RISIKO</v>
       </c>
       <c r="I11" s="90" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J11" s="87" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K11" s="80" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
@@ -42557,10 +42542,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B13" s="116" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C13" s="116"/>
       <c r="D13" s="75"/>
@@ -42569,22 +42554,22 @@
       <c r="G13" s="76"/>
       <c r="H13" s="75"/>
       <c r="I13" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J13" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="76" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="82" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D14" s="75" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>88</v>
@@ -42598,30 +42583,30 @@
       </c>
       <c r="H14" s="75"/>
       <c r="I14" s="90" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J14" s="87" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G15" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42632,22 +42617,22 @@
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G16" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42659,22 +42644,22 @@
     </row>
     <row r="17" spans="1:10" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G17" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42686,22 +42671,22 @@
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G18" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42724,40 +42709,40 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B20" s="116" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C20" s="116"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
       <c r="I20" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J20" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G21" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42768,22 +42753,22 @@
     </row>
     <row r="22" spans="1:10" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G22" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42795,22 +42780,22 @@
     </row>
     <row r="23" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G23" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42831,37 +42816,37 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B25" s="116" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C25" s="116"/>
       <c r="I25" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J25" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D26" s="69" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G26" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42872,22 +42857,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D27" s="69" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G27" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42898,22 +42883,22 @@
     </row>
     <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="70" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G28" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42924,22 +42909,22 @@
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="70" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D29" s="69" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G29" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42950,22 +42935,22 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="70" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D30" s="69" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G30" s="22" t="str">
         <f t="shared" si="0"/>
@@ -42976,22 +42961,22 @@
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="70" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G31" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43002,22 +42987,22 @@
     </row>
     <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="70" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G32" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43028,22 +43013,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="70" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G33" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43054,22 +43039,22 @@
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="70" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G34" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43080,22 +43065,22 @@
     </row>
     <row r="35" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="74" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G35" s="22" t="str">
         <f t="shared" ref="G35" si="1">IF(AND(E35="LAV",F35="LAV"),"LAV RISIKO",IF(AND(E35="LAV",F35="MIDDEL"),"LAV RISIKO",IF(AND(E35="LAV",F35="HØJ"),"MIDDEL RISIKO",IF(AND(E35="MIDDEL",F35="LAV"),"MIDDEL RISIKO",IF(AND(E35="MIDDEL",F35="MIDDEL"),"MIDDEL RISIKO",IF(AND(E35="MIDDEL",F35="HØJ"),"HØJ RISIKO",IF(AND(E35="HØJ",F35="LAV"),"HØJ RISIKO",IF(AND(E35="HØJ",F35="MIDDEL"),"HØJ RISIKO",IF(AND(E35="HØJ",F35="HØJ"),"HØJ RISIKO","Udregnes automatisk")))))))))</f>
@@ -43107,22 +43092,22 @@
     </row>
     <row r="36" spans="1:11" s="76" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="74" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D36" s="75" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G36" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43143,37 +43128,37 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B38" s="116" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C38" s="116"/>
       <c r="I38" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J38" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="72" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="71" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C39" s="68" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G39" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43186,16 +43171,16 @@
     </row>
     <row r="40" spans="1:11" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="74" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C40" s="75" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
@@ -43209,22 +43194,22 @@
     </row>
     <row r="41" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="74" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C41" s="75" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D41" s="75" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G41" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43236,22 +43221,22 @@
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="70" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D42" s="69" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G42" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43271,37 +43256,37 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="70" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B44" s="116" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C44" s="116"/>
       <c r="I44" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J44" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="70" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D45" s="69" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G45" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43312,22 +43297,22 @@
     </row>
     <row r="46" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="74" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D46" s="75" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G46" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43339,22 +43324,22 @@
     </row>
     <row r="47" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="74" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C47" s="75" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D47" s="75" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G47" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43375,37 +43360,37 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="70" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B49" s="116" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C49" s="116"/>
       <c r="I49" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J49" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="70" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G50" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43416,22 +43401,22 @@
     </row>
     <row r="51" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="74" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G51" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43443,22 +43428,22 @@
     </row>
     <row r="52" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="74" t="s">
+        <v>385</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="C52" s="75" t="s">
         <v>388</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="C52" s="75" t="s">
-        <v>391</v>
-      </c>
       <c r="D52" s="75" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G52" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43470,22 +43455,22 @@
     </row>
     <row r="53" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="74" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G53" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43497,22 +43482,22 @@
     </row>
     <row r="54" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="74" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G54" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43524,22 +43509,22 @@
     </row>
     <row r="55" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="74" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G55" s="22" t="str">
         <f t="shared" si="0"/>
@@ -43559,37 +43544,37 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="70" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B57" s="117" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C57" s="117"/>
       <c r="I57" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J57" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="76" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="74" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C58" s="75" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G58" s="22" t="str">
         <f t="shared" ref="G58:G83" si="2">IF(AND(E58="LAV",F58="LAV"),"LAV RISIKO",IF(AND(E58="LAV",F58="MIDDEL"),"LAV RISIKO",IF(AND(E58="LAV",F58="HØJ"),"MIDDEL RISIKO",IF(AND(E58="MIDDEL",F58="LAV"),"MIDDEL RISIKO",IF(AND(E58="MIDDEL",F58="MIDDEL"),"MIDDEL RISIKO",IF(AND(E58="MIDDEL",F58="HØJ"),"HØJ RISIKO",IF(AND(E58="HØJ",F58="LAV"),"HØJ RISIKO",IF(AND(E58="HØJ",F58="MIDDEL"),"HØJ RISIKO",IF(AND(E58="HØJ",F58="HØJ"),"HØJ RISIKO","Udregnes automatisk")))))))))</f>
@@ -43601,22 +43586,22 @@
     </row>
     <row r="59" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="74" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C59" s="75" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G59" s="22" t="str">
         <f t="shared" si="2"/>
@@ -43628,22 +43613,22 @@
     </row>
     <row r="60" spans="1:11" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="74" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C60" s="75" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G60" s="22" t="str">
         <f t="shared" si="2"/>
@@ -43664,37 +43649,37 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B62" s="116" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C62" s="116"/>
       <c r="I62" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J62" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="74" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G63" s="22" t="str">
         <f t="shared" si="2"/>
@@ -43707,22 +43692,22 @@
     </row>
     <row r="64" spans="1:11" s="76" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="74" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C64" s="75" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G64" s="22" t="str">
         <f t="shared" si="2"/>
@@ -43734,22 +43719,22 @@
     </row>
     <row r="65" spans="1:11" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="74" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C65" s="75" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G65" s="22" t="str">
         <f t="shared" si="2"/>
@@ -43761,22 +43746,22 @@
     </row>
     <row r="66" spans="1:11" s="76" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="74" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G66" s="22" t="str">
         <f t="shared" si="2"/>
@@ -43788,22 +43773,22 @@
     </row>
     <row r="67" spans="1:11" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="74" t="s">
+        <v>406</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="C67" s="75" t="s">
         <v>409</v>
       </c>
-      <c r="B67" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="C67" s="75" t="s">
-        <v>412</v>
-      </c>
       <c r="D67" s="75" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G67" s="22" t="str">
         <f t="shared" si="2"/>
@@ -43815,22 +43800,22 @@
     </row>
     <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="C68" s="69" t="s">
         <v>411</v>
       </c>
-      <c r="B68" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="C68" s="69" t="s">
-        <v>414</v>
-      </c>
       <c r="D68" s="69" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G68" s="22" t="str">
         <f t="shared" si="2"/>
@@ -43841,22 +43826,22 @@
     </row>
     <row r="69" spans="1:11" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="74" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D69" s="75" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G69" s="22" t="str">
         <f t="shared" si="2"/>
@@ -43868,22 +43853,22 @@
     </row>
     <row r="70" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="74" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C70" s="75" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D70" s="75" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G70" s="22" t="str">
         <f t="shared" si="2"/>
@@ -43896,22 +43881,22 @@
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="70" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C71" s="69" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D71" s="75" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G71" s="22" t="str">
         <f t="shared" si="2"/>
@@ -43922,22 +43907,22 @@
     </row>
     <row r="72" spans="1:11" s="76" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="74" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C72" s="75" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G72" s="22" t="str">
         <f t="shared" si="2"/>
@@ -43949,22 +43934,22 @@
     </row>
     <row r="73" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="71" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B73" s="67" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C73" s="68" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D73" s="68" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E73" s="67" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F73" s="67" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G73" s="22" t="str">
         <f t="shared" si="2"/>
@@ -43976,22 +43961,22 @@
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="70" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D74" s="69" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G74" s="22" t="str">
         <f t="shared" si="2"/>
@@ -44011,37 +43996,37 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="70" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B76" s="116" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C76" s="116"/>
       <c r="I76" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J76" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="74" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D77" s="75" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G77" s="22" t="str">
         <f t="shared" si="2"/>
@@ -44053,22 +44038,22 @@
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="70" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D78" s="75" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G78" s="22" t="str">
         <f t="shared" si="2"/>
@@ -44079,22 +44064,22 @@
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="70" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C79" s="69" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D79" s="69" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G79" s="22" t="str">
         <f t="shared" si="2"/>
@@ -44113,37 +44098,37 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="70" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B81" s="116" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C81" s="116"/>
       <c r="I81" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J81" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="70" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D82" s="69" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G82" s="22" t="str">
         <f t="shared" si="2"/>
@@ -44154,22 +44139,22 @@
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="70" t="s">
+        <v>428</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="C83" s="69" t="s">
+        <v>479</v>
+      </c>
+      <c r="D83" s="69" t="s">
+        <v>560</v>
+      </c>
+      <c r="E83" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="B83" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="C83" s="69" t="s">
-        <v>482</v>
-      </c>
-      <c r="D83" s="69" t="s">
-        <v>566</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>434</v>
-      </c>
       <c r="F83" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G83" s="22" t="str">
         <f t="shared" si="2"/>
@@ -44189,23 +44174,23 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B85" s="116" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C85" s="116"/>
       <c r="I85" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J85" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B86" s="18"/>
       <c r="C86" s="79" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D86" s="69" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>91</v>
@@ -44218,28 +44203,28 @@
         <v>MIDDEL RISIKO</v>
       </c>
       <c r="H86" s="69" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I86" s="90" t="s">
         <v>94</v>
       </c>
       <c r="J86" s="87" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K86" s="80" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B87" s="18"/>
       <c r="C87" s="79" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G87" s="22" t="str">
         <f t="shared" si="3"/>
@@ -44247,293 +44232,293 @@
       </c>
       <c r="I87" s="90"/>
       <c r="J87" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I88" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J88" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I89" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J89" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I90" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J90" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I91" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J91" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I92" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J92" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I93" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J93" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I94" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J94" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I95" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J95" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I96" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J96" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I97" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J97" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I98" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J98" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="99" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I99" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J99" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I100" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J100" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I101" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J101" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I102" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J102" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I103" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J103" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I104" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J104" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I105" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J105" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I106" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J106" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I107" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J107" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I108" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J108" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I109" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J109" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="110" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I110" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J110" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I111" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J111" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I112" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J112" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I113" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J113" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="114" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I114" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J114" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I115" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J115" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I116" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J116" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I117" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J117" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I118" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J118" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I119" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J119" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J120" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J121" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J122" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J123" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="124" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J124" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J125" s="87" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -45038,7 +45023,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -45046,10 +45031,10 @@
         <v>112</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -45057,10 +45042,10 @@
         <v>113</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -45068,10 +45053,10 @@
         <v>114</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -45079,10 +45064,10 @@
         <v>115</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -45090,7 +45075,7 @@
         <v>116</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C6" s="28"/>
     </row>
@@ -45099,10 +45084,10 @@
         <v>117</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -45110,10 +45095,10 @@
         <v>118</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -45121,10 +45106,10 @@
         <v>119</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -45132,10 +45117,10 @@
         <v>120</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -45143,10 +45128,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -45181,12 +45166,12 @@
         <v>104</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -45199,7 +45184,7 @@
     </row>
     <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -45209,7 +45194,7 @@
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -45222,7 +45207,7 @@
     </row>
     <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -45235,7 +45220,7 @@
     </row>
     <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45245,7 +45230,7 @@
     </row>
     <row r="18" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -45276,13 +45261,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -45293,10 +45278,10 @@
         <v>94</v>
       </c>
       <c r="C2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E2" t="s">
         <v>442</v>
-      </c>
-      <c r="E2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -45307,10 +45292,10 @@
         <v>95</v>
       </c>
       <c r="C3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3" t="s">
         <v>443</v>
-      </c>
-      <c r="E3" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -45318,13 +45303,13 @@
         <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" t="s">
         <v>444</v>
-      </c>
-      <c r="E4" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -45334,12 +45319,12 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -45565,18 +45550,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45599,14 +45584,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8E72E-01C3-4A90-A13D-D95FFDEBE7BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27C61CDB-0D2F-40B2-80EB-B5C2BB1999ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -45621,4 +45598,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8E72E-01C3-4A90-A13D-D95FFDEBE7BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/risikovurderinger/Risikovurdering-Aarhusarkivet.xlsx
+++ b/risikovurderinger/Risikovurdering-Aarhusarkivet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azkb075\github\persondata\risikovurderinger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E2E7F0-E23A-4D2C-804B-CAFA11AF7DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D30BF0-71B6-46F3-A28C-9C68910452D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEJLEDNING" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="569">
   <si>
     <t>Spørgsmål</t>
   </si>
@@ -2128,6 +2128,9 @@
   </si>
   <si>
     <t>Søren Bitsch Christensen</t>
+  </si>
+  <si>
+    <t>Risikoen ved manglende medarbejder backup er nu nedbragt.</t>
   </si>
 </sst>
 </file>
@@ -2444,7 +2447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2749,6 +2752,12 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2767,18 +2776,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20298,8 +20302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414EDFAA-A4AC-488F-89E2-85B1D90FA2E0}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20325,9 +20329,15 @@
       <c r="E7" s="85"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="118">
+        <v>45049</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>568</v>
+      </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
     </row>
@@ -20496,7 +20506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
@@ -21842,17 +21852,17 @@
       <c r="BZ2" s="16"/>
     </row>
     <row r="3" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="110" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="112"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -22378,17 +22388,17 @@
       <c r="BZ8" s="17"/>
     </row>
     <row r="9" spans="1:78" s="61" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="113"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -25183,7 +25193,7 @@
       <c r="BZ39" s="15"/>
     </row>
     <row r="40" spans="1:78" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="114"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
@@ -25273,7 +25283,7 @@
       <c r="BZ40" s="15"/>
     </row>
     <row r="41" spans="1:78" s="9" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="114"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="9" t="s">
         <v>43</v>
       </c>
@@ -25363,7 +25373,7 @@
       <c r="BZ41" s="17"/>
     </row>
     <row r="42" spans="1:78" s="6" customFormat="1" ht="58.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="115"/>
+      <c r="A42" s="109"/>
       <c r="B42" s="6" t="s">
         <v>44</v>
       </c>
@@ -37945,42 +37955,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A79:A82"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A67:A70"/>
     <mergeCell ref="A71:A74"/>
     <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="F4">
@@ -42217,10 +42227,10 @@
   <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42560,7 +42570,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="76" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="76" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>338</v>
       </c>
@@ -42583,10 +42593,10 @@
       </c>
       <c r="H14" s="75"/>
       <c r="I14" s="90" t="s">
-        <v>435</v>
+        <v>94</v>
       </c>
       <c r="J14" s="87" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45333,6 +45343,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006A56B998D5A0C740BA74A089E1299673" ma:contentTypeVersion="12" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="8b08b6c9a909167793ec28e6bcdfcea5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ab2f9ab6-927b-436c-bbcf-10f11a20bf72" xmlns:ns4="d3b3fe64-6279-4487-bae7-5a5e7ea037f8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5563ee922a17ab5eb4ddfb5f470ccbc" ns3:_="" ns4:_="">
     <xsd:import namespace="ab2f9ab6-927b-436c-bbcf-10f11a20bf72"/>
@@ -45549,36 +45574,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03977BB-7CFA-4EE6-BAD6-AA928FBAA0AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8E72E-01C3-4A90-A13D-D95FFDEBE7BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ab2f9ab6-927b-436c-bbcf-10f11a20bf72"/>
-    <ds:schemaRef ds:uri="d3b3fe64-6279-4487-bae7-5a5e7ea037f8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45601,9 +45600,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8E72E-01C3-4A90-A13D-D95FFDEBE7BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03977BB-7CFA-4EE6-BAD6-AA928FBAA0AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ab2f9ab6-927b-436c-bbcf-10f11a20bf72"/>
+    <ds:schemaRef ds:uri="d3b3fe64-6279-4487-bae7-5a5e7ea037f8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>